--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3160.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3160.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.897067777652651</v>
+        <v>0.7981618046760559</v>
       </c>
       <c r="B1">
-        <v>2.216046965607762</v>
+        <v>1.15644097328186</v>
       </c>
       <c r="C1">
-        <v>2.301060563453678</v>
+        <v>2.259835481643677</v>
       </c>
       <c r="D1">
-        <v>2.957631002209942</v>
+        <v>3.932620763778687</v>
       </c>
       <c r="E1">
-        <v>4.655477132340255</v>
+        <v>1.918848633766174</v>
       </c>
     </row>
   </sheetData>
